--- a/32085_candidates.xlsx
+++ b/32085_candidates.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rt753149/Desktop/mRNA_sequencing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD838E00-586C-2143-9A59-960A92729511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9358EF-F6A4-FF43-BBD2-2E784111E052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -162,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -171,6 +184,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="276" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -486,7 +500,7 @@
     <col min="11" max="11" width="114.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,7 +541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>100</v>
       </c>
@@ -565,7 +579,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>100</v>
       </c>
@@ -603,7 +617,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>100</v>
       </c>
@@ -641,7 +655,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>100</v>
       </c>
@@ -679,7 +693,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>100</v>
       </c>
@@ -717,7 +731,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>100</v>
       </c>
@@ -755,7 +769,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>100</v>
       </c>
@@ -793,7 +807,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>100</v>
       </c>
@@ -831,7 +845,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>100</v>
       </c>
@@ -869,7 +883,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>100</v>
       </c>
@@ -906,8 +920,11 @@
       <c r="M11">
         <v>898</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>99</v>
       </c>
@@ -944,8 +961,11 @@
       <c r="M12" s="5">
         <v>162</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N12" s="5">
+        <v>35.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>99</v>
       </c>
@@ -981,6 +1001,9 @@
       </c>
       <c r="M13" s="5">
         <v>163</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0.37</v>
       </c>
     </row>
   </sheetData>
